--- a/app/src/main/assets/Ethics.xlsx
+++ b/app/src/main/assets/Ethics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DBBE0A-B14B-4704-A001-AE62A5E0148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4BECAF-61CB-456F-9897-C6B576525D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Choice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="470">
   <si>
     <t>Ethics is the branch of philosophy that studies morality or the rightness or wrongness of human conduct.</t>
   </si>
@@ -1434,6 +1434,9 @@
   </si>
   <si>
     <t>Ethics Through Thick and Thin, and Ethics and Religion</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -1754,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1770,7 +1773,7 @@
     <col min="6" max="6" width="75.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1792,8 +1795,11 @@
       <c r="G1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1815,8 +1821,11 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1838,8 +1847,11 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1861,8 +1873,11 @@
       <c r="G4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1884,8 +1899,11 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1907,8 +1925,11 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1930,8 +1951,11 @@
       <c r="G7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1953,8 +1977,11 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1976,8 +2003,11 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1999,8 +2029,11 @@
       <c r="G10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -2022,8 +2055,11 @@
       <c r="G11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -2045,8 +2081,11 @@
       <c r="G12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -2068,8 +2107,11 @@
       <c r="G13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -2091,8 +2133,11 @@
       <c r="G14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -2114,8 +2159,11 @@
       <c r="G15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -2137,8 +2185,11 @@
       <c r="G16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -2160,8 +2211,11 @@
       <c r="G17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -2183,8 +2237,11 @@
       <c r="G18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -2206,8 +2263,11 @@
       <c r="G19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -2229,8 +2289,11 @@
       <c r="G20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -2252,8 +2315,11 @@
       <c r="G21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -2275,8 +2341,11 @@
       <c r="G22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -2298,8 +2367,11 @@
       <c r="G23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -2321,8 +2393,11 @@
       <c r="G24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -2344,8 +2419,11 @@
       <c r="G25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>175</v>
       </c>
@@ -2367,8 +2445,11 @@
       <c r="G26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>251</v>
       </c>
@@ -2390,8 +2471,11 @@
       <c r="G27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>251</v>
       </c>
@@ -2413,8 +2497,11 @@
       <c r="G28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>251</v>
       </c>
@@ -2436,8 +2523,11 @@
       <c r="G29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>251</v>
       </c>
@@ -2459,8 +2549,11 @@
       <c r="G30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>251</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="G31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -2505,8 +2601,11 @@
       <c r="G32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>251</v>
       </c>
@@ -2528,8 +2627,11 @@
       <c r="G33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>251</v>
       </c>
@@ -2551,8 +2653,11 @@
       <c r="G34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>251</v>
       </c>
@@ -2574,8 +2679,11 @@
       <c r="G35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>251</v>
       </c>
@@ -2597,8 +2705,11 @@
       <c r="G36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>402</v>
       </c>
@@ -2620,8 +2731,11 @@
       <c r="G37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>402</v>
       </c>
@@ -2643,8 +2757,11 @@
       <c r="G38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>402</v>
       </c>
@@ -2666,8 +2783,11 @@
       <c r="G39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>402</v>
       </c>
@@ -2689,8 +2809,11 @@
       <c r="G40" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -2712,8 +2835,11 @@
       <c r="G41" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>402</v>
       </c>
@@ -2735,8 +2861,11 @@
       <c r="G42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>402</v>
       </c>
@@ -2758,8 +2887,11 @@
       <c r="G43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>402</v>
       </c>
@@ -2781,8 +2913,11 @@
       <c r="G44" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>402</v>
       </c>
@@ -2804,8 +2939,11 @@
       <c r="G45" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>402</v>
       </c>
@@ -2827,8 +2965,11 @@
       <c r="G46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>402</v>
       </c>
@@ -2850,8 +2991,11 @@
       <c r="G47" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>402</v>
       </c>
@@ -2873,8 +3017,11 @@
       <c r="G48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>402</v>
       </c>
@@ -2896,8 +3043,11 @@
       <c r="G49" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>402</v>
       </c>
@@ -2919,8 +3069,11 @@
       <c r="G50" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>402</v>
       </c>
@@ -2942,8 +3095,11 @@
       <c r="G51" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>402</v>
       </c>
@@ -2965,8 +3121,11 @@
       <c r="G52" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>402</v>
       </c>
@@ -2988,8 +3147,11 @@
       <c r="G53" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>402</v>
       </c>
@@ -3011,8 +3173,11 @@
       <c r="G54" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>402</v>
       </c>
@@ -3034,8 +3199,11 @@
       <c r="G55" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>402</v>
       </c>
@@ -3057,8 +3225,11 @@
       <c r="G56" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>468</v>
       </c>
@@ -3080,8 +3251,11 @@
       <c r="G57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>468</v>
       </c>
@@ -3103,8 +3277,11 @@
       <c r="G58" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>468</v>
       </c>
@@ -3126,8 +3303,11 @@
       <c r="G59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>468</v>
       </c>
@@ -3149,8 +3329,11 @@
       <c r="G60" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>468</v>
       </c>
@@ -3172,8 +3355,11 @@
       <c r="G61" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>468</v>
       </c>
@@ -3195,8 +3381,11 @@
       <c r="G62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>468</v>
       </c>
@@ -3218,8 +3407,11 @@
       <c r="G63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>468</v>
       </c>
@@ -3241,8 +3433,11 @@
       <c r="G64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>468</v>
       </c>
@@ -3263,6 +3458,9 @@
       </c>
       <c r="G65" t="s">
         <v>58</v>
+      </c>
+      <c r="H65" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -3272,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85015F7F-D593-413F-9CD2-03CD2D7D7CE5}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3285,7 +3483,7 @@
     <col min="3" max="3" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -3295,8 +3493,11 @@
       <c r="C1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="C2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -3317,8 +3521,11 @@
       <c r="C3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3328,8 +3535,11 @@
       <c r="C4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -3339,8 +3549,11 @@
       <c r="C5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -3350,8 +3563,11 @@
       <c r="C6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -3361,8 +3577,11 @@
       <c r="C7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -3372,8 +3591,11 @@
       <c r="C8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -3383,8 +3605,11 @@
       <c r="C9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -3394,8 +3619,11 @@
       <c r="C10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -3405,8 +3633,11 @@
       <c r="C11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -3416,8 +3647,11 @@
       <c r="C12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -3427,8 +3661,11 @@
       <c r="C13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -3438,8 +3675,11 @@
       <c r="C14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -3449,8 +3689,11 @@
       <c r="C15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -3460,8 +3703,11 @@
       <c r="C16" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -3471,8 +3717,11 @@
       <c r="C17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -3482,8 +3731,11 @@
       <c r="C18" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -3493,8 +3745,11 @@
       <c r="C19" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>251</v>
       </c>
@@ -3504,8 +3759,11 @@
       <c r="C20" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>251</v>
       </c>
@@ -3515,8 +3773,11 @@
       <c r="C21" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -3526,8 +3787,11 @@
       <c r="C22" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>251</v>
       </c>
@@ -3537,8 +3801,11 @@
       <c r="C23" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -3548,8 +3815,11 @@
       <c r="C24" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>251</v>
       </c>
@@ -3559,8 +3829,11 @@
       <c r="C25" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>251</v>
       </c>
@@ -3570,8 +3843,11 @@
       <c r="C26" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>251</v>
       </c>
@@ -3581,8 +3857,11 @@
       <c r="C27" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>251</v>
       </c>
@@ -3592,8 +3871,11 @@
       <c r="C28" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>402</v>
       </c>
@@ -3603,8 +3885,11 @@
       <c r="C29" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>402</v>
       </c>
@@ -3614,8 +3899,11 @@
       <c r="C30" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>402</v>
       </c>
@@ -3625,8 +3913,11 @@
       <c r="C31" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>402</v>
       </c>
@@ -3636,8 +3927,11 @@
       <c r="C32" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>402</v>
       </c>
@@ -3647,8 +3941,11 @@
       <c r="C33" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>402</v>
       </c>
@@ -3658,8 +3955,11 @@
       <c r="C34" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>402</v>
       </c>
@@ -3669,8 +3969,11 @@
       <c r="C35" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>402</v>
       </c>
@@ -3680,8 +3983,11 @@
       <c r="C36" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>402</v>
       </c>
@@ -3691,8 +3997,11 @@
       <c r="C37" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>402</v>
       </c>
@@ -3702,8 +4011,11 @@
       <c r="C38" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>402</v>
       </c>
@@ -3713,8 +4025,11 @@
       <c r="C39" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>402</v>
       </c>
@@ -3724,8 +4039,11 @@
       <c r="C40" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -3735,8 +4053,11 @@
       <c r="C41" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>402</v>
       </c>
@@ -3746,8 +4067,11 @@
       <c r="C42" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>402</v>
       </c>
@@ -3757,8 +4081,11 @@
       <c r="C43" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>402</v>
       </c>
@@ -3768,8 +4095,11 @@
       <c r="C44" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>402</v>
       </c>
@@ -3779,8 +4109,11 @@
       <c r="C45" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>468</v>
       </c>
@@ -3790,8 +4123,11 @@
       <c r="C46" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>468</v>
       </c>
@@ -3801,8 +4137,11 @@
       <c r="C47" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>468</v>
       </c>
@@ -3812,8 +4151,11 @@
       <c r="C48" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>468</v>
       </c>
@@ -3823,8 +4165,11 @@
       <c r="C49" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>468</v>
       </c>
@@ -3833,6 +4178,9 @@
       </c>
       <c r="C50" t="s">
         <v>467</v>
+      </c>
+      <c r="D50" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -3842,10 +4190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF985EA-8FE2-431C-9E26-7A3C20EE129D}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3855,7 +4203,7 @@
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -3865,8 +4213,11 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -3876,8 +4227,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -3887,8 +4241,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3898,8 +4255,11 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -3909,8 +4269,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -3920,8 +4283,11 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -3931,8 +4297,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -3942,8 +4311,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -3953,8 +4325,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -3964,8 +4339,11 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -3975,8 +4353,11 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -3986,8 +4367,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -3997,8 +4381,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -4008,8 +4395,11 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -4019,8 +4409,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -4030,8 +4423,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -4041,8 +4437,11 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -4052,8 +4451,11 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -4063,8 +4465,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -4074,8 +4479,11 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -4085,8 +4493,11 @@
       <c r="C21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -4096,8 +4507,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -4107,8 +4521,11 @@
       <c r="C23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -4118,8 +4535,11 @@
       <c r="C24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -4129,8 +4549,11 @@
       <c r="C25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>251</v>
       </c>
@@ -4140,8 +4563,11 @@
       <c r="C26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>251</v>
       </c>
@@ -4151,8 +4577,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>251</v>
       </c>
@@ -4162,8 +4591,11 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>251</v>
       </c>
@@ -4173,8 +4605,11 @@
       <c r="C29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>251</v>
       </c>
@@ -4184,8 +4619,11 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>251</v>
       </c>
@@ -4195,8 +4633,11 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -4206,8 +4647,11 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>251</v>
       </c>
@@ -4217,8 +4661,11 @@
       <c r="C33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>251</v>
       </c>
@@ -4228,8 +4675,11 @@
       <c r="C34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>251</v>
       </c>
@@ -4239,8 +4689,11 @@
       <c r="C35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>402</v>
       </c>
@@ -4250,8 +4703,11 @@
       <c r="C36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>402</v>
       </c>
@@ -4261,8 +4717,11 @@
       <c r="C37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>402</v>
       </c>
@@ -4272,8 +4731,11 @@
       <c r="C38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>402</v>
       </c>
@@ -4283,8 +4745,11 @@
       <c r="C39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>402</v>
       </c>
@@ -4294,8 +4759,11 @@
       <c r="C40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -4305,8 +4773,11 @@
       <c r="C41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>402</v>
       </c>
@@ -4316,8 +4787,11 @@
       <c r="C42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>402</v>
       </c>
@@ -4327,8 +4801,11 @@
       <c r="C43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>402</v>
       </c>
@@ -4338,8 +4815,11 @@
       <c r="C44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>402</v>
       </c>
@@ -4349,8 +4829,11 @@
       <c r="C45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>402</v>
       </c>
@@ -4360,8 +4843,11 @@
       <c r="C46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>402</v>
       </c>
@@ -4371,8 +4857,11 @@
       <c r="C47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>402</v>
       </c>
@@ -4382,8 +4871,11 @@
       <c r="C48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>402</v>
       </c>
@@ -4393,8 +4885,11 @@
       <c r="C49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>402</v>
       </c>
@@ -4404,8 +4899,11 @@
       <c r="C50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>402</v>
       </c>
@@ -4415,8 +4913,11 @@
       <c r="C51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>402</v>
       </c>
@@ -4426,8 +4927,11 @@
       <c r="C52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>402</v>
       </c>
@@ -4437,8 +4941,11 @@
       <c r="C53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>402</v>
       </c>
@@ -4448,8 +4955,11 @@
       <c r="C54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>402</v>
       </c>
@@ -4459,8 +4969,11 @@
       <c r="C55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>468</v>
       </c>
@@ -4470,8 +4983,11 @@
       <c r="C56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>468</v>
       </c>
@@ -4481,8 +4997,11 @@
       <c r="C57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>468</v>
       </c>
@@ -4492,8 +5011,11 @@
       <c r="C58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>468</v>
       </c>
@@ -4503,8 +5025,11 @@
       <c r="C59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>468</v>
       </c>
@@ -4514,8 +5039,11 @@
       <c r="C60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>468</v>
       </c>
@@ -4525,8 +5053,11 @@
       <c r="C61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>468</v>
       </c>
@@ -4536,8 +5067,11 @@
       <c r="C62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>468</v>
       </c>
@@ -4547,8 +5081,11 @@
       <c r="C63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>468</v>
       </c>
@@ -4558,8 +5095,11 @@
       <c r="C64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>468</v>
       </c>
@@ -4568,6 +5108,9 @@
       </c>
       <c r="C65" t="b">
         <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
